--- a/dataExcel/imp_thuong_hieu.xlsx
+++ b/dataExcel/imp_thuong_hieu.xlsx
@@ -8,31 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_CWS\TestCode\DATN_CodeWalkers\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3605983-A7B1-4699-9B31-0A2D69D3142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B42884-CB60-43E2-90A5-904968714AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAAAD413-6DC1-4F35-AE6F-249E7C25FA44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAAAD413-6DC1-4F35-AE6F-249E7C25FA44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$C$10</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$B$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -154,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +158,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,18 +175,21 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" headers="0" connectionId="1" xr16:uid="{9E961746-8052-45E6-9328-B4E3F8742C47}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4" unboundColumnsLeft="1">
     <queryTableFields count="3">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="1" dataBound="0" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column1"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9A93621-61BB-4668-A13A-990BF89BD211}" name="imp_phân_loại" displayName="imp_phân_loại" ref="A1:C10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9A93621-61BB-4668-A13A-990BF89BD211}" name="imp_phân_loại" displayName="imp_phân_loại" ref="A2:C11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E5F607E5-E601-4AB3-A611-913E1E1F983E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A430FC45-BD28-497B-B527-B1EFF2C465F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
@@ -500,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3053C-D7AC-48B4-BB7F-5DB0347B75D9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,113 +509,113 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="b">
+      <c r="C11" t="b">
         <v>1</v>
       </c>
     </row>
